--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s3_P3_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>541.9484650450416</v>
+        <v>1083.518829430944</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.45846504503517</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.264931852275022</v>
+        <v>5.575377337951518</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.264931852275022</v>
+        <v>5.441553087125036</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>513.4900000000065</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,9 +609,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -824,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -885,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>42.53018219295431</v>
       </c>
     </row>
     <row r="4">
@@ -901,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.23570364914818</v>
+        <v>27.30976054153059</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.56872016525512</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>32.46981780704569</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.36749619474264</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,7 +1001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
@@ -993,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1007,15 +1029,113 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1118,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -1129,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -1140,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -1151,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
@@ -1173,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>244.5850000000007</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1184,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>257.2350000000006</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -1195,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>247.0750000000007</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
@@ -1206,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>253.9600000000007</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>253.8900000000007</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -1228,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1239,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.72499999999985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1250,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>42.39499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1261,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>38.17499999999987</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1272,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.26499999999986</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1283,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>112.9200000000001</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1294,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>114.9300000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1305,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>123.5850000000002</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1316,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>108.7650000000002</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1327,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>115.85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1338,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>158.8950000000009</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28">
@@ -1349,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>160.3750000000009</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -1360,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>165.9450000000009</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>164.0850000000009</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1382,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>167.35</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>65.71999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1404,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>59.43999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1415,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>69.37499999999963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1426,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>64.17999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1437,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>63.18499999999963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1448,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>244.5850000000007</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
@@ -1459,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>257.2350000000006</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
@@ -1470,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>247.0750000000007</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
@@ -1481,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>253.9600000000007</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -1492,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>253.8900000000007</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>44.58500000000063</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1605,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>57.23500000000064</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -1616,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>47.07500000000066</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -1627,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.96000000000066</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1638,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>53.89000000000067</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1806,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1817,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1828,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1839,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1861,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1872,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1883,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1894,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1963,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2001,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2012,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2023,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2034,12 +2154,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
